--- a/data/trans_camb/P24_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P24_2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,14</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>9,07</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 13,45</t>
+          <t>-5,61; 7,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 11,83</t>
+          <t>0,41; 13,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 10,08</t>
+          <t>-1,84; 10,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 11,52</t>
+          <t>-1,53; 14,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 8,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 9,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 7,73</t>
+          <t>-8,44; 10,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 12,34</t>
+          <t>-5,67; 11,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 7,81</t>
+          <t>-9,08; 7,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 8,93</t>
+          <t>0,31; 22,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 7,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 10,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 6,59</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 10,58</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 7,87</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 17,59</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>54,71%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>122,74%</t>
+          <t>130,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>104,87%</t>
+          <t>100,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>130,18%</t>
+          <t>118,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,77%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>52,27%</t>
+          <t>67,33%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>66,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>48,98%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>26,62%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>86,37%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,03; 336,07</t>
+          <t>-69,55; 337,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,86; 352,07</t>
+          <t>-7,44; 655,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 316,27</t>
+          <t>-23,69; 450,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,87; 353,86</t>
+          <t>-27,66; 618,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,19; 81,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 92,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 76,63</t>
+          <t>-43,1; 105,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 127,34</t>
+          <t>-27,6; 119,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 94,81</t>
+          <t>-42,79; 67,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,21; 122,3</t>
+          <t>-2,03; 223,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 102,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,01; 133,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-42,25; 83,91</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-8,0; 143,8</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-19,15; 110,02</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>10,95; 248,31</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,79</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,64</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,5</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 8,48</t>
+          <t>-2,15; 11,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,25</t>
+          <t>-3,18; 6,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,83</t>
+          <t>-4,22; 6,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,99</t>
+          <t>1,71; 16,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 5,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 5,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 6,91</t>
+          <t>-0,92; 8,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 12,9</t>
+          <t>0,71; 8,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,37</t>
+          <t>1,15; 9,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,08</t>
+          <t>4,06; 14,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 9,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,61</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 6,71</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 6,26</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 13,69</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>72,67%</t>
+          <t>54,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>68,69%</t>
+          <t>41,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,04%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>132,32%</t>
+          <t>133,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>79,45%</t>
+          <t>53,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>100,45%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>45,66%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>47,64%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>46,14%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>111,14%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 213,34</t>
+          <t>-35,72; 281,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 166,99</t>
+          <t>-35,27; 190,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 167,79</t>
+          <t>-49,37; 172,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,3; 264,59</t>
+          <t>-3,04; 426,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 56,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 62,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 72,61</t>
+          <t>-9,15; 121,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,93; 131,76</t>
+          <t>6,31; 126,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 76,94</t>
+          <t>8,44; 133,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 71,55</t>
+          <t>32,79; 213,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 74,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>44,59; 139,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 115,68</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 113,02</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 101,5</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>45,4; 214,17</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4,46</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 4,1</t>
+          <t>-5,26; 4,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 4,89</t>
+          <t>-4,27; 4,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,39</t>
+          <t>-6,29; 2,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 10,99</t>
+          <t>-4,41; 4,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 4,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 8,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,84</t>
+          <t>-1,96; 7,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,57; 14,24</t>
+          <t>0,6; 9,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,51</t>
+          <t>0,89; 9,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,62</t>
+          <t>3,18; 14,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,0; 10,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 4,48</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 6,35</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 4,95</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 7,99</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>-4,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,78%</t>
+          <t>-27,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>57,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>104,04%</t>
+          <t>76,46%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>79,17%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>47,52%</t>
+          <t>116,87%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>101,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>44,96%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>28,44%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>62,89%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 106,64</t>
+          <t>-51,83; 113,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 131,04</t>
+          <t>-44,62; 101,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 88,82</t>
+          <t>-62,07; 54,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 261,04</t>
+          <t>-48,08; 101,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 75,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 133,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,6; 141,98</t>
+          <t>-19,86; 161,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,44; 218,06</t>
+          <t>5,82; 208,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 62,15</t>
+          <t>4,96; 199,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,16; 108,29</t>
+          <t>29,35; 283,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 84,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,87; 184,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-23,81; 85,48</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 122,61</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-17,9; 93,35</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>9,19; 147,68</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>8,5</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>5,3</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,86</t>
+          <t>0,53; 8,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,55</t>
+          <t>-0,45; 6,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,64</t>
+          <t>-0,32; 6,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 4,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,92</t>
+          <t>-3,36; 3,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,15; 11,07</t>
+          <t>-1,9; 6,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,13</t>
+          <t>3,59; 13,72</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,2; 9,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 4,78</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 4,86</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 8,23</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>51,06%</t>
+          <t>79,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>68,16%</t>
+          <t>59,48%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>121,76%</t>
+          <t>61,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>75,99%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>75,79%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>39,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>89,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>23,93%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>28,4%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>67,89%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,85; 130,69</t>
+          <t>7,01; 211,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>22,82; 134,06</t>
+          <t>-9,44; 178,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,91; 118,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61,82; 201,53</t>
+          <t>-9,82; 168,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 47,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,32; 58,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,54; 61,75</t>
+          <t>-27,15; 39,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>44,67; 113,91</t>
+          <t>-15,71; 65,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,92; 54,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23,45; 69,83</t>
+          <t>26,42; 133,42</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>16,78; 64,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>60,83; 122,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 66,85</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 68,14</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>31,08; 117,33</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4,61</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,92</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,81</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>8,84</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>6,78</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 5,58</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 5,3</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 4,87</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 7,89</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 3,91</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 6,39</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 5,97</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 12,0</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 3,9</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 5,05</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 4,71</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>4,81; 8,9</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>52,48%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>64,54%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>48,35%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>90,71%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14,85%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>37,29%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>36,24%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>83,96%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>26,75%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>45,81%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>39,9%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>86,28%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>7,92; 126,77</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>22,4; 128,04</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 113,93</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>34,12; 175,99</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; 41,05</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>13,74; 66,38</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>13,28; 63,57</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>52,9; 126,87</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 52,26</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>23,1; 69,27</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>18,59; 65,0</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>56,69; 121,63</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
